--- a/reference/MTG Pula - Liga 2024 #1.xlsx
+++ b/reference/MTG Pula - Liga 2024 #1.xlsx
@@ -4,19 +4,20 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="2024-05-15" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="2024-05-08" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="2024-04-24" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="2024-05-22" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="2024-05-15" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="2024-05-08" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="2024-04-24" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$2:$N$20</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$2:$Q$21</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="46">
   <si>
     <t>IGRAČ</t>
   </si>
@@ -42,6 +43,33 @@
     <t>Hammer (W)</t>
   </si>
   <si>
+    <t>Tin Mihael Capar</t>
+  </si>
+  <si>
+    <t>Coffers (WB)</t>
+  </si>
+  <si>
+    <t>Zoo (5C)</t>
+  </si>
+  <si>
+    <t>Goryo's (WUB)</t>
+  </si>
+  <si>
+    <t>Filip Bastijanić</t>
+  </si>
+  <si>
+    <t>Taxes (WU)</t>
+  </si>
+  <si>
+    <t>Stefano Slipčević</t>
+  </si>
+  <si>
+    <t>Living End</t>
+  </si>
+  <si>
+    <t>Scam (BR)</t>
+  </si>
+  <si>
     <t>Matija Pilepić</t>
   </si>
   <si>
@@ -51,54 +79,39 @@
     <t>Yawgmoth</t>
   </si>
   <si>
-    <t>Stefano Slipčević</t>
-  </si>
-  <si>
-    <t>Living End</t>
-  </si>
-  <si>
-    <t>Scam (BR)</t>
-  </si>
-  <si>
-    <t>Goryo's (WUB)</t>
-  </si>
-  <si>
-    <t>Tin Mihael Capar</t>
-  </si>
-  <si>
-    <t>Zoo (5C)</t>
-  </si>
-  <si>
     <t>Ranko Jokić</t>
   </si>
   <si>
-    <t>Filip Bastijanić</t>
-  </si>
-  <si>
-    <t>Taxes (WU)</t>
+    <t>Scam (BRG)</t>
+  </si>
+  <si>
+    <t>Marko Lazić</t>
+  </si>
+  <si>
+    <t>Creativity (BRG)</t>
+  </si>
+  <si>
+    <t>Goblins</t>
+  </si>
+  <si>
+    <t>Franco Špigić</t>
+  </si>
+  <si>
+    <t>Vanja Žigolić</t>
+  </si>
+  <si>
+    <t>Prowess (UR)</t>
+  </si>
+  <si>
+    <t>Humans</t>
+  </si>
+  <si>
+    <t>Roko Perišić</t>
   </si>
   <si>
     <t>Davor Bilkić</t>
   </si>
   <si>
-    <t>Franco Špigić</t>
-  </si>
-  <si>
-    <t>Marko Lazić</t>
-  </si>
-  <si>
-    <t>Goblins</t>
-  </si>
-  <si>
-    <t>Vanja Žigolić</t>
-  </si>
-  <si>
-    <t>Prowess (UR)</t>
-  </si>
-  <si>
-    <t>Humans</t>
-  </si>
-  <si>
     <t>Marko Matošević</t>
   </si>
   <si>
@@ -114,12 +127,6 @@
     <t>Miloš Lazić</t>
   </si>
   <si>
-    <t>Roko Perišić</t>
-  </si>
-  <si>
-    <t>Coffers (WB)</t>
-  </si>
-  <si>
     <t>Borna Mislav Capar</t>
   </si>
   <si>
@@ -130,6 +137,9 @@
   </si>
   <si>
     <t>Nikola Cukon</t>
+  </si>
+  <si>
+    <t>Michel Rušnjak</t>
   </si>
   <si>
     <t>Stefan Kancelar</t>
@@ -296,13 +306,13 @@
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -337,6 +347,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -557,21 +571,26 @@
     <col customWidth="1" min="11" max="11" width="12.63"/>
     <col customWidth="1" min="12" max="13" width="6.38"/>
     <col customWidth="1" min="14" max="14" width="12.63"/>
+    <col customWidth="1" min="15" max="16" width="6.38"/>
+    <col customWidth="1" min="17" max="17" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3">
+        <v>45441.0</v>
+      </c>
+      <c r="F1" s="3">
         <v>45434.0</v>
       </c>
-      <c r="F1" s="3">
+      <c r="I1" s="3">
         <v>45427.0</v>
       </c>
-      <c r="I1" s="3">
+      <c r="L1" s="3">
         <v>45420.0</v>
       </c>
-      <c r="L1" s="3">
+      <c r="O1" s="3">
         <v>45406.0</v>
       </c>
     </row>
@@ -618,20 +637,29 @@
       <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="O2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="18.0" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8">
-        <f t="shared" ref="B3:B20" si="1">SUM(C3:N3)</f>
-        <v>39</v>
+        <f t="shared" ref="B3:B21" si="1">SUM(C3:Q3)</f>
+        <v>55</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="9">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="G3" s="10">
         <v>4.0</v>
@@ -640,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="9">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="J3" s="10">
         <v>4.0</v>
@@ -649,12 +677,21 @@
         <v>6</v>
       </c>
       <c r="L3" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="9">
         <v>7.0</v>
       </c>
-      <c r="M3" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="P3" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -664,13 +701,13 @@
       </c>
       <c r="B4" s="8">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="9">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="G4" s="10">
         <v>4.0</v>
@@ -694,31 +731,40 @@
         <v>4.0</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="O4" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="9">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="G5" s="10">
         <v>4.0</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>12</v>
+      <c r="H5" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I5" s="9">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="J5" s="10">
         <v>4.0</v>
@@ -727,26 +773,35 @@
         <v>13</v>
       </c>
       <c r="L5" s="9">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="M5" s="10">
         <v>4.0</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O5" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="9">
         <v>7.0</v>
       </c>
@@ -754,16 +809,16 @@
         <v>4.0</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I6" s="9">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="J6" s="10">
         <v>4.0</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>14</v>
+      <c r="K6" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="L6" s="9">
         <v>3.0</v>
@@ -773,6 +828,15 @@
       </c>
       <c r="N6" s="11" t="s">
         <v>16</v>
+      </c>
+      <c r="O6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="18.0" customHeight="1">
@@ -781,19 +845,19 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="9">
         <v>3.0</v>
       </c>
       <c r="G7" s="10">
         <v>4.0</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
+      <c r="H7" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="I7" s="9">
         <v>7.0</v>
@@ -801,47 +865,56 @@
       <c r="J7" s="10">
         <v>4.0</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>13</v>
+      <c r="K7" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="L7" s="9">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="M7" s="10">
         <v>4.0</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="O7" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="9">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" s="10">
         <v>4.0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" s="9">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="J8" s="10">
         <v>4.0</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" s="9">
         <v>7.0</v>
@@ -850,20 +923,29 @@
         <v>4.0</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O8" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="9">
         <v>12.0</v>
       </c>
@@ -871,189 +953,237 @@
         <v>4.0</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="J9" s="10">
         <v>4.0</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
+      <c r="K9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" ht="18.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="9">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G10" s="10">
         <v>4.0</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>10</v>
+      <c r="H10" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="I10" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="9">
         <v>8.0</v>
       </c>
-      <c r="J10" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="M10" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="9">
         <v>3.0</v>
       </c>
-      <c r="M10" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>10</v>
+      <c r="P10" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" s="8">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="9">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" s="10">
         <v>4.0</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>23</v>
+      <c r="H11" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="9">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="M11" s="10">
         <v>4.0</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="O11" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="18.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="9">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="J12" s="10">
         <v>4.0</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="K12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="13" ht="18.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="8">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="9">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I13" s="9">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="J13" s="10">
         <v>4.0</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="L13" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" ht="18.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="8">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" s="9">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="M14" s="10">
         <v>4.0</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" ht="18.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8">
         <f t="shared" si="1"/>
@@ -1061,26 +1191,29 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9">
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="9">
         <v>12.0</v>
       </c>
-      <c r="M15" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>7</v>
+      <c r="P15" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" si="1"/>
@@ -1088,26 +1221,29 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
+      <c r="O16" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" ht="18.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8">
         <f t="shared" si="1"/>
@@ -1115,26 +1251,29 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9">
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="9">
         <v>7.0</v>
       </c>
-      <c r="M17" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>13</v>
+      <c r="P17" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8">
         <f t="shared" si="1"/>
@@ -1142,26 +1281,29 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="9">
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="9">
         <v>7.0</v>
       </c>
-      <c r="M18" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>36</v>
+      <c r="P18" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="8">
         <f t="shared" si="1"/>
@@ -1169,68 +1311,105 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="9">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="M19" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="O19" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" ht="18.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="N20" s="11" t="s">
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" ht="18.0" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$2:$N$20">
-    <sortState ref="A2:N20">
-      <sortCondition descending="1" ref="B2:B20"/>
-      <sortCondition ref="A2:A20"/>
+  <autoFilter ref="$A$2:$Q$21">
+    <sortState ref="A2:Q21">
+      <sortCondition descending="1" ref="B2:B21"/>
+      <sortCondition ref="A2:A21"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A10">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -1258,140 +1437,140 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>22</v>
+      <c r="F5" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="F7" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>5</v>
+      <c r="A8" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="19">
         <v>2.0</v>
@@ -1400,39 +1579,39 @@
         <v>0.0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="19">
         <v>2.0</v>
       </c>
@@ -1440,148 +1619,163 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>18</v>
+      <c r="F14" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>21</v>
+      <c r="A15" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="19">
         <v>2.0</v>
       </c>
       <c r="D16" s="19">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C17" s="19">
         <v>2.0</v>
       </c>
       <c r="D17" s="19">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>12</v>
+      <c r="A18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="19">
         <v>2.0</v>
       </c>
       <c r="D18" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>15</v>
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
-        <v>42</v>
+      <c r="A19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="19">
         <v>2.0</v>
@@ -1590,58 +1784,43 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="A21" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="C22" s="19">
         <v>2.0</v>
       </c>
       <c r="D22" s="19">
         <v>0.0</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>17</v>
+      <c r="E22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C23" s="19">
         <v>2.0</v>
@@ -1650,38 +1829,78 @@
         <v>0.0</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="B25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>18</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1704,24 +1923,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>10</v>
+      <c r="A2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="19">
         <v>2.0</v>
       </c>
       <c r="D2" s="19">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>17</v>
@@ -1729,10 +1948,10 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" s="19">
         <v>1.0</v>
@@ -1740,39 +1959,39 @@
       <c r="D3" s="19">
         <v>1.0</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>24</v>
+      <c r="E3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="19">
         <v>2.0</v>
@@ -1780,19 +1999,19 @@
       <c r="D5" s="19">
         <v>1.0</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>37</v>
+      <c r="E5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="19">
         <v>2.0</v>
@@ -1801,83 +2020,83 @@
         <v>0.0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8" s="19">
         <v>2.0</v>
       </c>
       <c r="D8" s="19">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="19">
         <v>2.0</v>
       </c>
       <c r="D9" s="19">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" s="19">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="19">
         <v>2.0</v>
@@ -1885,19 +2104,19 @@
       <c r="D11" s="19">
         <v>0.0</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>37</v>
+      <c r="E11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="19">
         <v>2.0</v>
@@ -1906,20 +2125,20 @@
         <v>0.0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>19</v>
@@ -1928,61 +2147,61 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>27</v>
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>15</v>
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C16" s="19">
         <v>2.0</v>
       </c>
       <c r="D16" s="19">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>13</v>
+      <c r="A17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="19">
         <v>2.0</v>
@@ -1991,18 +2210,18 @@
         <v>1.0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C18" s="19">
         <v>2.0</v>
@@ -2010,44 +2229,44 @@
       <c r="D18" s="19">
         <v>0.0</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>20</v>
+      <c r="F18" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C20" s="19">
         <v>2.0</v>
       </c>
       <c r="D20" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>27</v>
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21" s="19">
         <v>2.0</v>
@@ -2055,19 +2274,19 @@
       <c r="D21" s="19">
         <v>0.0</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>11</v>
+      <c r="E21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C22" s="19">
         <v>2.0</v>
@@ -2076,18 +2295,18 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C23" s="19">
         <v>2.0</v>
@@ -2096,18 +2315,18 @@
         <v>0.0</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C24" s="19">
         <v>2.0</v>
@@ -2115,11 +2334,11 @@
       <c r="D24" s="19">
         <v>1.0</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>17</v>
+      <c r="F24" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2150,15 +2369,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>13</v>
+      <c r="A2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="19">
         <v>2.0</v>
@@ -2166,31 +2385,31 @@
       <c r="D2" s="19">
         <v>1.0</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="19">
         <v>1.0</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>21</v>
+      <c r="E3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -2198,7 +2417,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="19">
         <v>2.0</v>
@@ -2207,38 +2426,484 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>37</v>
+      <c r="F5" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:F19"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="25.13"/>
+    <col customWidth="1" min="3" max="4" width="6.38"/>
+    <col customWidth="1" min="5" max="6" width="25.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>13</v>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="19">
         <v>2.0</v>
@@ -2246,19 +2911,19 @@
       <c r="D6" s="19">
         <v>1.0</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>15</v>
+      <c r="E6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>9</v>
+      <c r="A7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="19">
         <v>2.0</v>
@@ -2266,18 +2931,18 @@
       <c r="D7" s="19">
         <v>0.0</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>17</v>
+      <c r="E7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="19">
@@ -2286,24 +2951,24 @@
       <c r="D8" s="19">
         <v>1.0</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>30</v>
+      <c r="A10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="19">
         <v>2.0</v>
@@ -2311,289 +2976,289 @@
       <c r="D10" s="19">
         <v>1.0</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="18" t="s">
+      <c r="C11" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="18" t="s">
+      <c r="C14" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="B15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="C16" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>38</v>
+      <c r="F16" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="F22" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>21</v>
+      <c r="F24" s="20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>30</v>
+      <c r="A26" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="19">
         <v>2.0</v>
@@ -2601,111 +3266,111 @@
       <c r="D26" s="19">
         <v>0.0</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
+      <c r="B31" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="C31" s="19">
         <v>2.0</v>
       </c>
       <c r="D31" s="19">
         <v>0.0</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
